--- a/Statistcs/Statistcs.xlsx
+++ b/Statistcs/Statistcs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/junweili/Desktop/hw1/project1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/junweili/Desktop/hw1/project1/Statistcs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E1FAAC3-05AB-4A4C-88AD-733E9F85617F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B663DC94-27AA-D147-81E6-72069F4C5378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{F89B8E72-DD32-4749-A694-33A79A2AAAC5}"/>
+    <workbookView xWindow="-9600" yWindow="-21600" windowWidth="38400" windowHeight="21600" xr2:uid="{F89B8E72-DD32-4749-A694-33A79A2AAAC5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
   <si>
     <t>page/min</t>
   </si>
@@ -132,18 +132,5212 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600"/>
+              <a:t>Pages/Min</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$I$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>488</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>181</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CC21-B74C-B779-320617ED2A17}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1630431888"/>
+        <c:axId val="1613800064"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1630431888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600"/>
+                  <a:t>Pages</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600" baseline="0"/>
+                  <a:t> crawled</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1600"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1613800064"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1613800064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600"/>
+                  <a:t>Pages/min</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1630431888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>request_count</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$I$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>278</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>892</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>946</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1382</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-49AC-2746-91BB-76D2FE684031}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1613819984"/>
+        <c:axId val="1613821632"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1613819984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Pages crawled</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-CN">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1613821632"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1613821632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>request_count</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-CN">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1613819984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>response_status_count/200</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$I$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>381</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>571</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>783</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>926</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B723-AE4C-B878-5DFC8DCB1C9A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1613834640"/>
+        <c:axId val="1613836288"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1613834640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Pages crawled</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-CN">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1613836288"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1613836288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>response_status_count/200</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-CN">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1613834640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600"/>
+              <a:t>dupefilter</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>dupefilter/filtered</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$5:$I$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2868</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12978</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20483</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13968</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32453</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35444</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1601-BE47-9704-5188F9E03E10}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1663865792"/>
+        <c:axId val="1663867440"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1663865792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Pages crawled</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-CN">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1663867440"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1663867440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>dupefilter</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-CN">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1663865792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>request_depth_max</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$6:$I$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>46</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4185-E34C-A8E9-63903A04E9FB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1587345120"/>
+        <c:axId val="1587346768"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1587345120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Pages crawled</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-CN">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1587346768"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1587346768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>request_depth_max</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-CN">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1587345120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1463414</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>48292</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1693331</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E555CAA3-40C7-EF66-15C9-57E7B4EB205C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1936671</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>31358</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>658518</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>49546</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91415DC1-7665-F126-191F-B5A131E00D3C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1484802</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>47036</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>47036</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>156477</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFFE980C-FD1C-95EA-1479-D53C766EEFE2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1505185</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>63029</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>333962</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>94073</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E176968-04B8-94AF-4F93-2BF6432A3049}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1406408</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>141111</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>705556</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>125119</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Chart 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58BF237F-9EF1-5BD5-1715-A0D7D8682B4D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AADBF499-3F34-204A-ACE1-CA62B2C21FE3}" name="Table1" displayName="Table1" ref="A1:H7" totalsRowShown="0">
   <autoFilter ref="A1:H7" xr:uid="{AADBF499-3F34-204A-ACE1-CA62B2C21FE3}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{AAA38669-EB1D-AC47-B960-8ECE65908DB5}" name="Column1"/>
-    <tableColumn id="2" xr3:uid="{525671E9-909F-3945-96CE-C772AB0CC012}" name="1000"/>
-    <tableColumn id="3" xr3:uid="{16325241-7F59-4B42-BC37-8AB84E4E80A5}" name="800"/>
-    <tableColumn id="4" xr3:uid="{4AA2E9FF-5E38-864E-A275-E486516B3670}" name="600"/>
-    <tableColumn id="5" xr3:uid="{5C817492-A9D1-BE47-A1A4-DD4241592E80}" name="400"/>
-    <tableColumn id="6" xr3:uid="{9F3A13E3-094B-F149-A5C3-EA6F52CBE8BF}" name="200"/>
-    <tableColumn id="7" xr3:uid="{15DE2B19-7D52-BA4B-8E94-159B58CE34D9}" name="100"/>
-    <tableColumn id="8" xr3:uid="{38A8BC2F-4448-6E47-BED7-681B546707C6}" name="50"/>
+    <tableColumn id="2" xr3:uid="{525671E9-909F-3945-96CE-C772AB0CC012}" name="10"/>
+    <tableColumn id="3" xr3:uid="{16325241-7F59-4B42-BC37-8AB84E4E80A5}" name="50"/>
+    <tableColumn id="4" xr3:uid="{4AA2E9FF-5E38-864E-A275-E486516B3670}" name="100"/>
+    <tableColumn id="5" xr3:uid="{5C817492-A9D1-BE47-A1A4-DD4241592E80}" name="200"/>
+    <tableColumn id="6" xr3:uid="{9F3A13E3-094B-F149-A5C3-EA6F52CBE8BF}" name="400"/>
+    <tableColumn id="7" xr3:uid="{15DE2B19-7D52-BA4B-8E94-159B58CE34D9}" name="600"/>
+    <tableColumn id="8" xr3:uid="{38A8BC2F-4448-6E47-BED7-681B546707C6}" name="800"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -153,7 +5347,17 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E075B3E2-9520-0A42-AF2E-AF5391303A68}" name="Table2" displayName="Table2" ref="I1:I6" totalsRowShown="0">
   <autoFilter ref="I1:I6" xr:uid="{E075B3E2-9520-0A42-AF2E-AF5391303A68}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{97AA7612-782B-7B4B-A5ED-8E7EA4CF346C}" name="10"/>
+    <tableColumn id="1" xr3:uid="{97AA7612-782B-7B4B-A5ED-8E7EA4CF346C}" name="1000"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A7FA8896-CF39-3B4E-A035-4114EB153D76}" name="Table24" displayName="Table24" ref="I42:I47" totalsRowShown="0">
+  <autoFilter ref="I42:I47" xr:uid="{A7FA8896-CF39-3B4E-A035-4114EB153D76}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{30647AE3-A9E6-C841-8D2C-32487D673140}" name="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -456,9 +5660,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25E68316-08DF-4549-A392-C6F10C141A5E}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="81" zoomScaleNormal="172" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -477,28 +5683,28 @@
         <v>5</v>
       </c>
       <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
         <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -506,28 +5712,28 @@
         <v>0</v>
       </c>
       <c r="B2">
+        <v>42</v>
+      </c>
+      <c r="C2">
+        <v>103</v>
+      </c>
+      <c r="D2">
+        <v>190</v>
+      </c>
+      <c r="E2">
+        <v>126</v>
+      </c>
+      <c r="F2">
+        <v>260</v>
+      </c>
+      <c r="G2">
+        <v>488</v>
+      </c>
+      <c r="H2">
+        <v>440</v>
+      </c>
+      <c r="I2">
         <v>181</v>
-      </c>
-      <c r="C2">
-        <v>440</v>
-      </c>
-      <c r="D2">
-        <v>488</v>
-      </c>
-      <c r="E2">
-        <v>260</v>
-      </c>
-      <c r="F2">
-        <v>126</v>
-      </c>
-      <c r="G2">
-        <v>190</v>
-      </c>
-      <c r="H2">
-        <v>103</v>
-      </c>
-      <c r="I2">
-        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -535,28 +5741,28 @@
         <v>1</v>
       </c>
       <c r="B3">
+        <v>26</v>
+      </c>
+      <c r="C3">
+        <v>80</v>
+      </c>
+      <c r="D3">
+        <v>154</v>
+      </c>
+      <c r="E3">
+        <v>278</v>
+      </c>
+      <c r="F3">
+        <v>600</v>
+      </c>
+      <c r="G3">
+        <v>892</v>
+      </c>
+      <c r="H3">
+        <v>946</v>
+      </c>
+      <c r="I3">
         <v>1382</v>
-      </c>
-      <c r="C3">
-        <v>946</v>
-      </c>
-      <c r="D3">
-        <v>892</v>
-      </c>
-      <c r="E3">
-        <v>600</v>
-      </c>
-      <c r="F3">
-        <v>278</v>
-      </c>
-      <c r="G3">
-        <v>154</v>
-      </c>
-      <c r="H3">
-        <v>80</v>
-      </c>
-      <c r="I3">
-        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -564,28 +5770,28 @@
         <v>2</v>
       </c>
       <c r="B4">
+        <v>22</v>
+      </c>
+      <c r="C4">
+        <v>57</v>
+      </c>
+      <c r="D4">
+        <v>105</v>
+      </c>
+      <c r="E4">
+        <v>205</v>
+      </c>
+      <c r="F4">
+        <v>381</v>
+      </c>
+      <c r="G4">
+        <v>571</v>
+      </c>
+      <c r="H4">
+        <v>783</v>
+      </c>
+      <c r="I4">
         <v>926</v>
-      </c>
-      <c r="C4">
-        <v>783</v>
-      </c>
-      <c r="D4">
-        <v>571</v>
-      </c>
-      <c r="E4">
-        <v>381</v>
-      </c>
-      <c r="F4">
-        <v>205</v>
-      </c>
-      <c r="G4">
-        <v>105</v>
-      </c>
-      <c r="H4">
-        <v>57</v>
-      </c>
-      <c r="I4">
-        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -593,28 +5799,28 @@
         <v>3</v>
       </c>
       <c r="B5">
+        <v>1004</v>
+      </c>
+      <c r="C5">
+        <v>2868</v>
+      </c>
+      <c r="D5">
+        <v>4999</v>
+      </c>
+      <c r="E5">
+        <v>12978</v>
+      </c>
+      <c r="F5">
+        <v>20483</v>
+      </c>
+      <c r="G5">
+        <v>13968</v>
+      </c>
+      <c r="H5">
+        <v>32453</v>
+      </c>
+      <c r="I5">
         <v>35444</v>
-      </c>
-      <c r="C5">
-        <v>32453</v>
-      </c>
-      <c r="D5">
-        <v>13968</v>
-      </c>
-      <c r="E5">
-        <v>20483</v>
-      </c>
-      <c r="F5">
-        <v>12978</v>
-      </c>
-      <c r="G5">
-        <v>4999</v>
-      </c>
-      <c r="H5">
-        <v>2868</v>
-      </c>
-      <c r="I5">
-        <v>1004</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -622,35 +5828,211 @@
         <v>4</v>
       </c>
       <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>8</v>
+      </c>
+      <c r="E6">
+        <v>9</v>
+      </c>
+      <c r="F6">
+        <v>25</v>
+      </c>
+      <c r="G6">
+        <v>28</v>
+      </c>
+      <c r="H6">
+        <v>38</v>
+      </c>
+      <c r="I6">
         <v>46</v>
       </c>
-      <c r="C6">
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" t="s">
+        <v>9</v>
+      </c>
+      <c r="F42" t="s">
+        <v>10</v>
+      </c>
+      <c r="G42" t="s">
+        <v>11</v>
+      </c>
+      <c r="H42" t="s">
+        <v>12</v>
+      </c>
+      <c r="I42" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43">
+        <v>181</v>
+      </c>
+      <c r="C43">
+        <v>440</v>
+      </c>
+      <c r="D43">
+        <v>488</v>
+      </c>
+      <c r="E43">
+        <v>260</v>
+      </c>
+      <c r="F43">
+        <v>126</v>
+      </c>
+      <c r="G43">
+        <v>190</v>
+      </c>
+      <c r="H43">
+        <v>103</v>
+      </c>
+      <c r="I43">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>1</v>
+      </c>
+      <c r="B44">
+        <v>1382</v>
+      </c>
+      <c r="C44">
+        <v>946</v>
+      </c>
+      <c r="D44">
+        <v>892</v>
+      </c>
+      <c r="E44">
+        <v>600</v>
+      </c>
+      <c r="F44">
+        <v>278</v>
+      </c>
+      <c r="G44">
+        <v>154</v>
+      </c>
+      <c r="H44">
+        <v>80</v>
+      </c>
+      <c r="I44">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>2</v>
+      </c>
+      <c r="B45">
+        <v>926</v>
+      </c>
+      <c r="C45">
+        <v>783</v>
+      </c>
+      <c r="D45">
+        <v>571</v>
+      </c>
+      <c r="E45">
+        <v>381</v>
+      </c>
+      <c r="F45">
+        <v>205</v>
+      </c>
+      <c r="G45">
+        <v>105</v>
+      </c>
+      <c r="H45">
+        <v>57</v>
+      </c>
+      <c r="I45">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46">
+        <v>35444</v>
+      </c>
+      <c r="C46">
+        <v>32453</v>
+      </c>
+      <c r="D46">
+        <v>13968</v>
+      </c>
+      <c r="E46">
+        <v>20483</v>
+      </c>
+      <c r="F46">
+        <v>12978</v>
+      </c>
+      <c r="G46">
+        <v>4999</v>
+      </c>
+      <c r="H46">
+        <v>2868</v>
+      </c>
+      <c r="I46">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47">
+        <v>46</v>
+      </c>
+      <c r="C47">
         <v>38</v>
       </c>
-      <c r="D6">
+      <c r="D47">
         <v>28</v>
       </c>
-      <c r="E6">
+      <c r="E47">
         <v>25</v>
       </c>
-      <c r="F6">
+      <c r="F47">
         <v>9</v>
       </c>
-      <c r="G6">
+      <c r="G47">
         <v>8</v>
       </c>
-      <c r="H6">
+      <c r="H47">
         <v>5</v>
       </c>
-      <c r="I6">
+      <c r="I47">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="2">
-    <tablePart r:id="rId1"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="3">
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>